--- a/VENTAS/datasets_salida/prom_rutachiquinquira.xlsx
+++ b/VENTAS/datasets_salida/prom_rutachiquinquira.xlsx
@@ -22,7 +22,7 @@
     <t>marca</t>
   </si>
   <si>
-    <t>promedio_6_meses</t>
+    <t>promedio_12_meses</t>
   </si>
   <si>
     <t>ventas_mes_cerrado</t>
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>668633</v>
+        <v>612033</v>
       </c>
       <c r="E3">
         <v>2292500</v>
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>99166</v>
+        <v>116366</v>
       </c>
       <c r="E4">
         <v>206800</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>645683</v>
+        <v>837483</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>2708716</v>
+        <v>2794800</v>
       </c>
       <c r="E9">
         <v>1658300</v>
@@ -583,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>1185483</v>
+        <v>1182925</v>
       </c>
       <c r="E10">
         <v>906700</v>
@@ -600,7 +600,7 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>12266</v>
+        <v>6133</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>44200</v>
+        <v>22100</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>58200</v>
+        <v>117900</v>
       </c>
       <c r="E14">
         <v>232800</v>
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <v>552800</v>
+        <v>826100</v>
       </c>
       <c r="E16">
         <v>1480800</v>
@@ -702,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>105400</v>
+        <v>205400</v>
       </c>
       <c r="E20">
         <v>559200</v>
@@ -770,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <v>1045850</v>
+        <v>1198383</v>
       </c>
       <c r="E21">
         <v>770800</v>
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>2000950</v>
+        <v>2504308</v>
       </c>
       <c r="E22">
         <v>5950600</v>
@@ -821,7 +821,7 @@
         <v>13</v>
       </c>
       <c r="D24">
-        <v>32700</v>
+        <v>53483</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>14</v>
       </c>
       <c r="D25">
-        <v>144000</v>
+        <v>163300</v>
       </c>
       <c r="E25">
         <v>480600</v>
@@ -855,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>1182166</v>
+        <v>1469900</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>9752983</v>
+        <v>13518933</v>
       </c>
       <c r="E27">
         <v>633700</v>
@@ -889,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <v>12069816</v>
+        <v>14297633</v>
       </c>
       <c r="E28">
         <v>1602300</v>
@@ -906,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>13</v>
       </c>
       <c r="D30">
-        <v>1703483</v>
+        <v>2005908</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>14</v>
       </c>
       <c r="D31">
-        <v>442733</v>
+        <v>562900</v>
       </c>
       <c r="E31">
         <v>0</v>
